--- a/Data/EC/NIT-9005830425.xlsx
+++ b/Data/EC/NIT-9005830425.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFB63ACA-9C4D-4CE3-8C0F-C05AE810F428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CEBB7AA-C9E3-4EF2-AF9D-EA45BEAF9BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{509AF0FD-3FFE-4C26-9DC6-A816C44497D5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E6D335C4-06F8-49BC-A3AD-80C0395352F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="63">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,127 +65,133 @@
     <t>CC</t>
   </si>
   <si>
+    <t>57085464</t>
+  </si>
+  <si>
+    <t>YUJALIS LISETH GAMARRA BOLNOS</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1047418333</t>
+  </si>
+  <si>
+    <t>JESUS MANUEL PEÑA ALTAMAR</t>
+  </si>
+  <si>
+    <t>1047424510</t>
+  </si>
+  <si>
+    <t>LEIDER DE JESUS PINEDA PUERTA</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
     <t>1143369743</t>
   </si>
   <si>
     <t>MIGUEL ANGEL TABARES LONDOÑO</t>
   </si>
   <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
     <t>1607</t>
   </si>
   <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1047418333</t>
-  </si>
-  <si>
-    <t>JESUS MANUEL PEÑA ALTAMAR</t>
-  </si>
-  <si>
-    <t>57085464</t>
-  </si>
-  <si>
-    <t>YUJALIS LISETH GAMARRA BOLNOS</t>
-  </si>
-  <si>
     <t>73582254</t>
   </si>
   <si>
     <t>RUBEN BENEDETTI AREVALO</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -599,7 +605,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B124DE82-3151-8619-9F41-A8EF6D84CAEF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18E9CE70-F2C6-1B00-D6F8-6C9AAF9F7155}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -950,8 +956,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF30BEB3-1A7E-4B56-9930-BFF9A388C78C}">
-  <dimension ref="B2:J72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6579AFCF-D313-421F-9E70-5EAA622C52E1}">
+  <dimension ref="B2:J84"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -975,7 +981,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1020,7 +1026,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1052,12 +1058,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1477421</v>
+        <v>1847201</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1068,14 +1074,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C13" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F13" s="5">
         <v>33</v>
@@ -1105,13 +1111,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1128,7 +1134,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>27578</v>
+        <v>26041</v>
       </c>
       <c r="G16" s="18">
         <v>781242</v>
@@ -1151,7 +1157,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G17" s="18">
         <v>781242</v>
@@ -1174,7 +1180,7 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G18" s="18">
         <v>781242</v>
@@ -1197,7 +1203,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G19" s="18">
         <v>781242</v>
@@ -1220,7 +1226,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G20" s="18">
         <v>781242</v>
@@ -1243,7 +1249,7 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G21" s="18">
         <v>781242</v>
@@ -1257,16 +1263,16 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F22" s="18">
-        <v>27578</v>
+        <v>26041</v>
       </c>
       <c r="G22" s="18">
         <v>781242</v>
@@ -1280,16 +1286,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F23" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G23" s="18">
         <v>781242</v>
@@ -1303,16 +1309,16 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F24" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G24" s="18">
         <v>781242</v>
@@ -1326,16 +1332,16 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F25" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G25" s="18">
         <v>781242</v>
@@ -1349,16 +1355,16 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F26" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G26" s="18">
         <v>781242</v>
@@ -1372,16 +1378,16 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F27" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G27" s="18">
         <v>781242</v>
@@ -1395,16 +1401,16 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F28" s="18">
-        <v>27578</v>
+        <v>26041</v>
       </c>
       <c r="G28" s="18">
         <v>781242</v>
@@ -1418,16 +1424,16 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F29" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G29" s="18">
         <v>781242</v>
@@ -1441,16 +1447,16 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F30" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G30" s="18">
         <v>781242</v>
@@ -1464,16 +1470,16 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F31" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G31" s="18">
         <v>781242</v>
@@ -1487,16 +1493,16 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F32" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G32" s="18">
         <v>781242</v>
@@ -1510,16 +1516,16 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F33" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G33" s="18">
         <v>781242</v>
@@ -1533,16 +1539,16 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F34" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G34" s="18">
         <v>781242</v>
@@ -1556,16 +1562,16 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F35" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G35" s="18">
         <v>781242</v>
@@ -1579,16 +1585,16 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F36" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G36" s="18">
         <v>781242</v>
@@ -1602,16 +1608,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F37" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G37" s="18">
         <v>781242</v>
@@ -1625,16 +1631,16 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F38" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G38" s="18">
         <v>781242</v>
@@ -1648,16 +1654,16 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F39" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G39" s="18">
         <v>781242</v>
@@ -1671,16 +1677,16 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F40" s="18">
-        <v>27578</v>
+        <v>26041</v>
       </c>
       <c r="G40" s="18">
         <v>781242</v>
@@ -1694,16 +1700,16 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F41" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G41" s="18">
         <v>781242</v>
@@ -1717,13 +1723,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="F42" s="18">
         <v>31249</v>
@@ -1740,13 +1746,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="F43" s="18">
         <v>31249</v>
@@ -1763,13 +1769,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="F44" s="18">
         <v>31249</v>
@@ -1786,13 +1792,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="F45" s="18">
         <v>31249</v>
@@ -1809,13 +1815,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F46" s="18">
         <v>31249</v>
@@ -1832,16 +1838,16 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="F47" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G47" s="18">
         <v>781242</v>
@@ -1855,16 +1861,16 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F48" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G48" s="18">
         <v>781242</v>
@@ -1878,16 +1884,16 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F49" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G49" s="18">
         <v>781242</v>
@@ -1901,16 +1907,16 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="F50" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G50" s="18">
         <v>781242</v>
@@ -1924,16 +1930,16 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F51" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G51" s="18">
         <v>781242</v>
@@ -1947,16 +1953,16 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="F52" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G52" s="18">
         <v>781242</v>
@@ -1970,16 +1976,16 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F53" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G53" s="18">
         <v>781242</v>
@@ -1993,16 +1999,16 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F54" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G54" s="18">
         <v>781242</v>
@@ -2016,16 +2022,16 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="F55" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G55" s="18">
         <v>781242</v>
@@ -2039,16 +2045,16 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="F56" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G56" s="18">
         <v>781242</v>
@@ -2062,16 +2068,16 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="F57" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G57" s="18">
         <v>781242</v>
@@ -2085,16 +2091,16 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F58" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G58" s="18">
         <v>781242</v>
@@ -2108,16 +2114,16 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F59" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G59" s="18">
         <v>781242</v>
@@ -2131,16 +2137,16 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F60" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G60" s="18">
         <v>781242</v>
@@ -2154,16 +2160,16 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F61" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G61" s="18">
         <v>781242</v>
@@ -2177,16 +2183,16 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F62" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G62" s="18">
         <v>781242</v>
@@ -2200,16 +2206,16 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F63" s="18">
-        <v>26041</v>
+        <v>27578</v>
       </c>
       <c r="G63" s="18">
         <v>781242</v>
@@ -2223,16 +2229,16 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F64" s="18">
-        <v>26041</v>
+        <v>27578</v>
       </c>
       <c r="G64" s="18">
         <v>781242</v>
@@ -2246,16 +2252,16 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F65" s="18">
-        <v>26041</v>
+        <v>27578</v>
       </c>
       <c r="G65" s="18">
         <v>781242</v>
@@ -2265,56 +2271,332 @@
       <c r="J65" s="20"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B66" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C66" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D66" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="E66" s="22" t="s">
+      <c r="B66" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" s="18">
+        <v>27578</v>
+      </c>
+      <c r="G66" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H66" s="19"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="20"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B67" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" s="18">
+        <v>27578</v>
+      </c>
+      <c r="G67" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="20"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B68" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F68" s="18">
+        <v>27578</v>
+      </c>
+      <c r="G68" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H68" s="19"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="20"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B69" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F69" s="18">
+        <v>27578</v>
+      </c>
+      <c r="G69" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H69" s="19"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="20"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B70" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F70" s="18">
+        <v>27578</v>
+      </c>
+      <c r="G70" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="20"/>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B71" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F71" s="18">
+        <v>27578</v>
+      </c>
+      <c r="G71" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H71" s="19"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="20"/>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B72" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E72" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F66" s="24">
+      <c r="F72" s="18">
+        <v>27578</v>
+      </c>
+      <c r="G72" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="20"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B73" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" s="18">
         <v>26041</v>
       </c>
-      <c r="G66" s="24">
-        <v>781242</v>
-      </c>
-      <c r="H66" s="25"/>
-      <c r="I66" s="25"/>
-      <c r="J66" s="26"/>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B71" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="C71" s="32"/>
-      <c r="H71" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B72" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="C72" s="32"/>
-      <c r="H72" s="1" t="s">
+      <c r="G73" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H73" s="19"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="20"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B74" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G74" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H74" s="19"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="20"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B75" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G75" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H75" s="19"/>
+      <c r="I75" s="19"/>
+      <c r="J75" s="20"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B76" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G76" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H76" s="19"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="20"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B77" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F77" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G77" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H77" s="19"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="20"/>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B78" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D78" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E78" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F78" s="24">
+        <v>31249</v>
+      </c>
+      <c r="G78" s="24">
+        <v>781242</v>
+      </c>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="26"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B83" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C83" s="32"/>
+      <c r="H83" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B84" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
+      <c r="C84" s="32"/>
+      <c r="H84" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="H83:J83"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9005830425.xlsx
+++ b/Data/EC/NIT-9005830425.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CEBB7AA-C9E3-4EF2-AF9D-EA45BEAF9BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA02C681-2398-4CD3-8468-51C93A2A65BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E6D335C4-06F8-49BC-A3AD-80C0395352F8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B273B29D-4298-4710-851B-498D32E17195}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="61">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,133 +65,127 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1143369743</t>
+  </si>
+  <si>
+    <t>MIGUEL ANGEL TABARES LONDOÑO</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
     <t>57085464</t>
   </si>
   <si>
     <t>YUJALIS LISETH GAMARRA BOLNOS</t>
   </si>
   <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1047418333</t>
+  </si>
+  <si>
+    <t>JESUS MANUEL PEÑA ALTAMAR</t>
+  </si>
+  <si>
+    <t>73582254</t>
+  </si>
+  <si>
+    <t>RUBEN BENEDETTI AREVALO</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
     <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1047418333</t>
-  </si>
-  <si>
-    <t>JESUS MANUEL PEÑA ALTAMAR</t>
-  </si>
-  <si>
-    <t>1047424510</t>
-  </si>
-  <si>
-    <t>LEIDER DE JESUS PINEDA PUERTA</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1143369743</t>
-  </si>
-  <si>
-    <t>MIGUEL ANGEL TABARES LONDOÑO</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>73582254</t>
-  </si>
-  <si>
-    <t>RUBEN BENEDETTI AREVALO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -290,7 +284,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -303,9 +299,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -505,23 +499,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -549,10 +543,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -605,7 +599,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18E9CE70-F2C6-1B00-D6F8-6C9AAF9F7155}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20EAD563-8368-26C4-DEB8-8DBA3A6A02AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -956,8 +950,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6579AFCF-D313-421F-9E70-5EAA622C52E1}">
-  <dimension ref="B2:J84"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{346CDB6B-A75E-438B-8147-8C5FACE6DDAE}">
+  <dimension ref="B2:J72"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -981,7 +975,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1026,7 +1020,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1058,12 +1052,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1847201</v>
+        <v>1477421</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1074,14 +1068,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C13" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F13" s="5">
         <v>33</v>
@@ -1111,13 +1105,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I15" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>57</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1134,7 +1128,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>26041</v>
+        <v>27578</v>
       </c>
       <c r="G16" s="18">
         <v>781242</v>
@@ -1157,7 +1151,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G17" s="18">
         <v>781242</v>
@@ -1180,7 +1174,7 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G18" s="18">
         <v>781242</v>
@@ -1203,7 +1197,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G19" s="18">
         <v>781242</v>
@@ -1226,7 +1220,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G20" s="18">
         <v>781242</v>
@@ -1249,7 +1243,7 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G21" s="18">
         <v>781242</v>
@@ -1263,16 +1257,16 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F22" s="18">
-        <v>26041</v>
+        <v>27578</v>
       </c>
       <c r="G22" s="18">
         <v>781242</v>
@@ -1286,16 +1280,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G23" s="18">
         <v>781242</v>
@@ -1309,16 +1303,16 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G24" s="18">
         <v>781242</v>
@@ -1332,16 +1326,16 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G25" s="18">
         <v>781242</v>
@@ -1355,16 +1349,16 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G26" s="18">
         <v>781242</v>
@@ -1378,16 +1372,16 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G27" s="18">
         <v>781242</v>
@@ -1401,16 +1395,16 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>26041</v>
+        <v>27578</v>
       </c>
       <c r="G28" s="18">
         <v>781242</v>
@@ -1424,16 +1418,16 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G29" s="18">
         <v>781242</v>
@@ -1447,16 +1441,16 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G30" s="18">
         <v>781242</v>
@@ -1470,16 +1464,16 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G31" s="18">
         <v>781242</v>
@@ -1493,16 +1487,16 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G32" s="18">
         <v>781242</v>
@@ -1516,16 +1510,16 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G33" s="18">
         <v>781242</v>
@@ -1539,16 +1533,16 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G34" s="18">
         <v>781242</v>
@@ -1562,16 +1556,16 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F35" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G35" s="18">
         <v>781242</v>
@@ -1585,16 +1579,16 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F36" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G36" s="18">
         <v>781242</v>
@@ -1608,16 +1602,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F37" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G37" s="18">
         <v>781242</v>
@@ -1631,16 +1625,16 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F38" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G38" s="18">
         <v>781242</v>
@@ -1654,16 +1648,16 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F39" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G39" s="18">
         <v>781242</v>
@@ -1677,16 +1671,16 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F40" s="18">
-        <v>26041</v>
+        <v>27578</v>
       </c>
       <c r="G40" s="18">
         <v>781242</v>
@@ -1700,16 +1694,16 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="F41" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G41" s="18">
         <v>781242</v>
@@ -1723,13 +1717,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F42" s="18">
         <v>31249</v>
@@ -1746,13 +1740,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="F43" s="18">
         <v>31249</v>
@@ -1769,13 +1763,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F44" s="18">
         <v>31249</v>
@@ -1792,13 +1786,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F45" s="18">
         <v>31249</v>
@@ -1815,13 +1809,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F46" s="18">
         <v>31249</v>
@@ -1838,16 +1832,16 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="F47" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G47" s="18">
         <v>781242</v>
@@ -1861,16 +1855,16 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="F48" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G48" s="18">
         <v>781242</v>
@@ -1884,16 +1878,16 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="F49" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G49" s="18">
         <v>781242</v>
@@ -1907,16 +1901,16 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="F50" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G50" s="18">
         <v>781242</v>
@@ -1930,16 +1924,16 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="F51" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G51" s="18">
         <v>781242</v>
@@ -1953,16 +1947,16 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="F52" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G52" s="18">
         <v>781242</v>
@@ -1976,16 +1970,16 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F53" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G53" s="18">
         <v>781242</v>
@@ -1999,16 +1993,16 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F54" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G54" s="18">
         <v>781242</v>
@@ -2022,16 +2016,16 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="F55" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G55" s="18">
         <v>781242</v>
@@ -2045,16 +2039,16 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F56" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G56" s="18">
         <v>781242</v>
@@ -2068,16 +2062,16 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="F57" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G57" s="18">
         <v>781242</v>
@@ -2091,16 +2085,16 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F58" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G58" s="18">
         <v>781242</v>
@@ -2114,16 +2108,16 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F59" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G59" s="18">
         <v>781242</v>
@@ -2137,16 +2131,16 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F60" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G60" s="18">
         <v>781242</v>
@@ -2160,16 +2154,16 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="F61" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G61" s="18">
         <v>781242</v>
@@ -2183,16 +2177,16 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F62" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G62" s="18">
         <v>781242</v>
@@ -2206,16 +2200,16 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F63" s="18">
-        <v>27578</v>
+        <v>26041</v>
       </c>
       <c r="G63" s="18">
         <v>781242</v>
@@ -2229,16 +2223,16 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F64" s="18">
-        <v>27578</v>
+        <v>26041</v>
       </c>
       <c r="G64" s="18">
         <v>781242</v>
@@ -2252,16 +2246,16 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F65" s="18">
-        <v>27578</v>
+        <v>26041</v>
       </c>
       <c r="G65" s="18">
         <v>781242</v>
@@ -2271,332 +2265,56 @@
       <c r="J65" s="20"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B66" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C66" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D66" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E66" s="16" t="s">
+      <c r="B66" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F66" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G66" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="20"/>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B67" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D67" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E67" s="16" t="s">
+      <c r="D66" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="F67" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G67" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="20"/>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B68" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C68" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D68" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E68" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F68" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G68" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="20"/>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B69" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C69" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D69" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E69" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F69" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G69" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="20"/>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B70" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D70" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E70" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F70" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G70" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="20"/>
+      <c r="E66" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F66" s="24">
+        <v>26041</v>
+      </c>
+      <c r="G66" s="24">
+        <v>781242</v>
+      </c>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="26"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B71" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C71" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D71" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E71" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F71" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G71" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="20"/>
+      <c r="B71" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C71" s="32"/>
+      <c r="H71" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B72" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D72" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E72" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F72" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G72" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="20"/>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B73" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D73" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E73" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F73" s="18">
-        <v>26041</v>
-      </c>
-      <c r="G73" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="20"/>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B74" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D74" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E74" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F74" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G74" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="20"/>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B75" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D75" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E75" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F75" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G75" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="20"/>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B76" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D76" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E76" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F76" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G76" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="20"/>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B77" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C77" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D77" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E77" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F77" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G77" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="20"/>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B78" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C78" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D78" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E78" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="F78" s="24">
-        <v>31249</v>
-      </c>
-      <c r="G78" s="24">
-        <v>781242</v>
-      </c>
-      <c r="H78" s="25"/>
-      <c r="I78" s="25"/>
-      <c r="J78" s="26"/>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B83" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="C83" s="32"/>
-      <c r="H83" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B84" s="32" t="s">
+      <c r="B72" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C72" s="32"/>
+      <c r="H72" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C84" s="32"/>
-      <c r="H84" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="H84:J84"/>
-    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="H71:J71"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
